--- a/src/main/java/testData/TestData.xlsx
+++ b/src/main/java/testData/TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="146">
   <si>
     <t>Result</t>
   </si>
@@ -521,7 +521,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="224">
+  <fonts count="229">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2049,8 +2049,38 @@
       <b val="true"/>
       <color indexed="10"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
   </fonts>
-  <fills count="83">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2389,6 +2419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="41"/>
       </patternFill>
     </fill>
@@ -2573,7 +2628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2804,6 +2859,11 @@
     <xf numFmtId="0" fontId="221" fillId="78" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="80" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="82" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="86" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5566,8 +5626,8 @@
       <c r="P2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="188" t="s">
-        <v>8</v>
+      <c r="Q2" s="233" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5619,8 +5679,8 @@
       <c r="P3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="189" t="s">
-        <v>8</v>
+      <c r="Q3" s="234" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5672,8 +5732,8 @@
       <c r="P4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="190" t="s">
-        <v>8</v>
+      <c r="Q4" s="232" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
